--- a/doc/项目任务计划20170626_jieqiang.xlsx
+++ b/doc/项目任务计划20170626_jieqiang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>序号</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>已有erp分销系统源码搭建熟悉</t>
+  </si>
+  <si>
+    <t>待定</t>
   </si>
   <si>
     <t>商城+ERP+CPS打通流程</t>
@@ -77,12 +80,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +95,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -99,6 +123,75 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -106,68 +199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,61 +216,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,17 +441,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,30 +466,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -514,11 +480,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,88 +543,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -637,58 +633,58 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -751,12 +747,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1041,6 +1032,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1050,7 +1042,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1122,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1132,8 +1124,11 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1143,16 +1138,22 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/doc/项目任务计划20170626_jieqiang.xlsx
+++ b/doc/项目任务计划20170626_jieqiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>序号</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>基础版商城的开发部署(功能列表)</t>
+  </si>
+  <si>
+    <t>需要一个开通微信支付的认证服务号测试</t>
   </si>
   <si>
     <t>商城+cps接口跑流程</t>
@@ -80,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,6 +98,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -102,23 +112,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,13 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -145,6 +179,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -154,30 +196,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,38 +219,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,25 +250,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,43 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,97 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,15 +441,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,45 +455,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,8 +477,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,16 +1042,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="37.125" customWidth="1"/>
+    <col min="4" max="5" width="9.375"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1082,11 +1086,17 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2">
+        <v>20170701</v>
+      </c>
+      <c r="E2">
+        <v>20170705</v>
+      </c>
       <c r="F2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1096,7 +1106,16 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3">
+        <v>20170706</v>
+      </c>
+      <c r="E3">
+        <v>20170711</v>
+      </c>
       <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1105,13 +1124,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>20170712</v>
+      </c>
+      <c r="E4">
+        <v>20170718</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1119,13 +1144,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1133,13 +1158,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1147,13 +1172,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/doc/项目任务计划20170626_jieqiang.xlsx
+++ b/doc/项目任务计划20170626_jieqiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>序号</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>cps客户经理手机界面的代码开发</t>
+  </si>
+  <si>
+    <t>待前端开发完毕，客户确认页面</t>
   </si>
   <si>
     <t>商城搭建</t>
@@ -83,9 +86,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -98,7 +101,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,15 +128,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,22 +153,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,30 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -202,18 +198,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,6 +225,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,187 +253,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,6 +444,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,17 +477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,8 +489,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,25 +505,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,7 +1048,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1076,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1094,6 +1097,9 @@
       </c>
       <c r="F2">
         <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1101,10 +1107,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>20170706</v>
@@ -1116,7 +1122,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:6">
@@ -1124,10 +1130,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>20170712</v>
@@ -1144,10 +1150,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -1158,13 +1164,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1172,13 +1178,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
